--- a/biology/Microbiologie/Citation_d'auteurs_en_bactériologie/Citation_d'auteurs_en_bactériologie.xlsx
+++ b/biology/Microbiologie/Citation_d'auteurs_en_bactériologie/Citation_d'auteurs_en_bactériologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Citation_d%27auteurs_en_bact%C3%A9riologie</t>
+          <t>Citation_d'auteurs_en_bactériologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la nomenclature bactérienne, la citation d'auteurs se réfère au(x) nom(s) de personne(s) qui se place(nt) après le nom scientifique.
 Elle est composée du nom de l'auteur (ou des auteurs) ayant publié le premier le nom (soit la description originale, soit la recombinaison). Cette citation est, en général, systématiquement indiquée dans les textes taxonomiques, mais elle est souvent omise dans les textes de vulgarisation. 
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Citation_d%27auteurs_en_bact%C3%A9riologie</t>
+          <t>Citation_d'auteurs_en_bactériologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Le mot « ex »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dans une citation d'auteurs du nom d'une bactérie le mot « ex » peut être utilisé. L'usage est différent de l'usage en botanique. Dans le nom :
 Bacillus palustris (ex Sickles and Shaw 1934) Brown 1982
